--- a/custom_blocks.xlsx
+++ b/custom_blocks.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="13005"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>블록이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,6 +601,26 @@
   "tooltip": "",
   "helpUrl": ""
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크립트 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크립트 뒤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var code 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리턴 코드 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{'digital_on':'" + dropdown_digital_select + "'}";</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,13 +857,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27214</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9247909</xdr:colOff>
+      <xdr:colOff>9275123</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>5143357</xdr:rowOff>
     </xdr:to>
@@ -862,7 +882,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3394364" y="207818"/>
+          <a:off x="4136571" y="204107"/>
           <a:ext cx="9247909" cy="5143357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1390,10 +1410,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1402,9 +1423,14 @@
     <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="144.5" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="35.25" customWidth="1"/>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
+    <col min="8" max="8" width="47.875" customWidth="1"/>
+    <col min="9" max="9" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1417,8 +1443,20 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1428,8 +1466,30 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2">
+        <f>FIND("var code = ",C2)</f>
+        <v>182</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>LEFT(C2,E2+10)</f>
+        <v xml:space="preserve">Blockly.JavaScript['digital_pin_on'] = function(block) {
+  var dropdown_digital_select = block.getFieldValue('digital_select');
+  // TODO: Assemble JavaScript into code variable.
+  var code = </v>
+      </c>
+      <c r="G2" t="str">
+        <f>RIGHT(C2,LEN(C2)-E2-20)</f>
+        <v xml:space="preserve">  return code;
+};</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1439,8 +1499,24 @@
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="0">FIND("var code = ",C3)</f>
+        <v>183</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F12" si="1">LEFT(C3,E3+10)</f>
+        <v xml:space="preserve">Blockly.JavaScript['digital_pin_off'] = function(block) {
+  var dropdown_digital_select = block.getFieldValue('digital_select');
+  // TODO: Assemble JavaScript into code variable.
+  var code = </v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G12" si="2">RIGHT(C3,LEN(C3)-E3-20)</f>
+        <v xml:space="preserve">  return code;
+};</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1450,8 +1526,25 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Blockly.JavaScript['digital_pin_sensor'] = function(block) {
+  var dropdown_digital_select = block.getFieldValue('digital_select');
+  // TODO: Assemble JavaScript into code variable.
+  var code = </v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>/ TODO: Change ORDER_NONE to the correct strength.
+  return [code, Blockly.JavaScript.ORDER_NONE];
+};</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1461,8 +1554,25 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Blockly.JavaScript['digital_pin_sensor_value'] = function(block) {
+  var dropdown_digital_select = block.getFieldValue('digital_select');
+  // TODO: Assemble JavaScript into code variable.
+  var code = </v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>/ TODO: Change ORDER_NONE to the correct strength.
+  return [code, Blockly.JavaScript.ORDER_NONE];
+};</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1472,8 +1582,24 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Blockly.JavaScript['control_sensor_start'] = function(block) {
+  var dropdown_digital_select = block.getFieldValue('digital_select');
+  // TODO: Assemble JavaScript into code variable.
+  var code = </v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  return code;
+};</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1483,8 +1609,24 @@
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Blockly.JavaScript['control_if_start'] = function(block) {
+  var value_name = Blockly.JavaScript.valueToCode(block, 'NAME', Blockly.JavaScript.ORDER_ATOMIC);
+  // TODO: Assemble JavaScript into code variable.
+  var code = </v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  return code;
+};</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1494,8 +1636,24 @@
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Blockly.JavaScript['control_iot_data_start'] = function(block) {
+  var value_name = Blockly.JavaScript.valueToCode(block, 'NAME', Blockly.JavaScript.ORDER_ATOMIC);
+  // TODO: Assemble JavaScript into code variable.
+  var code = </v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  return code;
+};</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1505,8 +1663,23 @@
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Blockly.JavaScript['control_button_click_start'] = function(block) {
+  // TODO: Assemble JavaScript into code variable.
+  var code = </v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  return code;
+};</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1516,8 +1689,25 @@
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Blockly.JavaScript['control_times_loop'] = function(block) {
+  var number_loop_time = block.getFieldValue('loop_time');
+  var statements_name = Blockly.JavaScript.statementToCode(block, 'NAME');
+  // TODO: Assemble JavaScript into code variable.
+  var code = </v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  return code;
+};</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" ht="396" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="396" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1717,24 @@
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Blockly.JavaScript['control_unlimited_loop'] = function(block) {
+  var statements_name = Blockly.JavaScript.statementToCode(block, 'NAME');
+  // TODO: Assemble JavaScript into code variable.
+  var code = </v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  return code;
+};</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1537,6 +1743,23 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Blockly.JavaScript['control_while_loop'] = function(block) {
+  var value_name = Blockly.JavaScript.valueToCode(block, 'NAME', Blockly.JavaScript.ORDER_ATOMIC);
+  var statements_name = Blockly.JavaScript.statementToCode(block, 'NAME');
+  // TODO: Assemble JavaScript into code variable.
+  var code = </v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">  return code;
+};</v>
       </c>
     </row>
   </sheetData>
@@ -1549,6 +1772,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1562,6 +1786,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
